--- a/SportsInviter/Data/Input/Schedule.xlsx
+++ b/SportsInviter/Data/Input/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE0ADBC-303E-4B18-81E4-05561C3FEDB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1901410-6A22-4E7E-B083-4DA69CDA1624}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="38">
   <si>
     <t>No.</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>07.30 PM</t>
+  </si>
+  <si>
+    <t>Russell Creek G4 L or M</t>
   </si>
 </sst>
 </file>
@@ -215,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -240,6 +243,9 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1011,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1074,7 +1080,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="8">
@@ -1143,7 +1149,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1163,6 +1169,96 @@
       </c>
       <c r="G25" s="7" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8">
+        <v>43631</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8">
+        <v>43631</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8">
+        <v>43631</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8">
+        <v>43632</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/SportsInviter/Data/Input/Schedule.xlsx
+++ b/SportsInviter/Data/Input/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1901410-6A22-4E7E-B083-4DA69CDA1624}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594E7F19-E1E9-4ACB-A299-650C2F57A8D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="38">
   <si>
     <t>No.</t>
   </si>
@@ -588,7 +588,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,7 +1256,9 @@
       <c r="E29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="G29" s="4" t="s">
         <v>36</v>
       </c>

--- a/SportsInviter/Data/Input/Schedule.xlsx
+++ b/SportsInviter/Data/Input/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594E7F19-E1E9-4ACB-A299-650C2F57A8D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8AB239-43C3-447C-9D62-91E1AC2B4834}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,7 +588,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,7 +1245,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="8">
-        <v>43632</v>
+        <v>43638</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>15</v>

--- a/SportsInviter/Data/Input/Schedule.xlsx
+++ b/SportsInviter/Data/Input/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8AB239-43C3-447C-9D62-91E1AC2B4834}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D07C6BB-3FB7-4825-8DF0-28300AA401E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="37">
   <si>
     <t>No.</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Frisco NE2</t>
-  </si>
-  <si>
-    <t>5/4/2019</t>
   </si>
   <si>
     <t>5/5/2019</t>
@@ -587,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,8 +620,8 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
+      <c r="B2" s="8">
+        <v>43589</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -636,7 +633,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>10</v>
@@ -647,7 +644,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>11</v>
@@ -659,10 +656,10 @@
         <v>13</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -670,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>14</v>
@@ -682,7 +679,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>10</v>
@@ -693,7 +690,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
@@ -705,7 +702,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>10</v>
@@ -716,7 +713,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>20</v>
@@ -728,10 +725,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -754,7 +751,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -774,7 +771,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>10</v>
@@ -800,7 +797,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -820,7 +817,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>10</v>
@@ -843,10 +840,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -866,10 +863,10 @@
         <v>24</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -892,7 +889,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -912,7 +909,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>10</v>
@@ -935,10 +932,10 @@
         <v>23</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -961,7 +958,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -969,7 +966,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
@@ -984,7 +981,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -992,7 +989,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>18</v>
@@ -1007,7 +1004,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -1015,7 +1012,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>14</v>
@@ -1027,7 +1024,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>10</v>
@@ -1038,7 +1035,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>7</v>
@@ -1050,7 +1047,7 @@
         <v>27</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>10</v>
@@ -1061,7 +1058,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>17</v>
@@ -1073,10 +1070,10 @@
         <v>24</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -1099,7 +1096,7 @@
         <v>10</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1107,7 +1104,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>21</v>
@@ -1119,7 +1116,7 @@
         <v>13</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>10</v>
@@ -1130,7 +1127,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>18</v>
@@ -1142,10 +1139,10 @@
         <v>23</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1153,7 +1150,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>11</v>
@@ -1168,7 +1165,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1188,7 +1185,7 @@
         <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>10</v>
@@ -1214,7 +1211,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1234,7 +1231,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>10</v>
@@ -1254,13 +1251,13 @@
         <v>8</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/SportsInviter/Data/Input/Schedule.xlsx
+++ b/SportsInviter/Data/Input/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D07C6BB-3FB7-4825-8DF0-28300AA401E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C268587-1214-47C7-8063-2B31046CFA92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1242,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="8">
-        <v>43638</v>
+        <v>43639</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>15</v>

--- a/SportsInviter/Data/Input/Schedule.xlsx
+++ b/SportsInviter/Data/Input/Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C268587-1214-47C7-8063-2B31046CFA92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26BE54E-9FB9-4B1A-B0B7-5CE0B26C7706}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="1515" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="37">
   <si>
     <t>No.</t>
   </si>
@@ -582,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,6 +1260,29 @@
         <v>35</v>
       </c>
     </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8">
+        <v>43639</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SportsInviter/Data/Input/Schedule.xlsx
+++ b/SportsInviter/Data/Input/Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26BE54E-9FB9-4B1A-B0B7-5CE0B26C7706}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D351206-7EA1-4425-9FFC-8E7456047C7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="1515" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="42">
   <si>
     <t>No.</t>
   </si>
@@ -134,6 +134,21 @@
   </si>
   <si>
     <t>Russell Creek G4 L or M</t>
+  </si>
+  <si>
+    <t>Russell Creek G7 I</t>
+  </si>
+  <si>
+    <t>Sandy Lake Ground</t>
+  </si>
+  <si>
+    <t>01.30 PM</t>
+  </si>
+  <si>
+    <t>05.30 PM</t>
+  </si>
+  <si>
+    <t>08.30 PM</t>
   </si>
 </sst>
 </file>
@@ -582,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,10 +1222,10 @@
       <c r="E27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="F27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1230,10 +1245,10 @@
       <c r="E28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1253,10 +1268,10 @@
       <c r="E29" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="F29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1276,11 +1291,103 @@
       <c r="E30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>34</v>
+      <c r="F30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8">
+        <v>43645</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8">
+        <v>43645</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8">
+        <v>43646</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8">
+        <v>43646</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
